--- a/data/trans_dic/P23_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea</t>
+          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 13,0</t>
+          <t>0,75; 7,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,24</t>
+          <t>1,8; 6,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,59</t>
+          <t>1,36; 5,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 13,52</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 10,46</t>
+          <t>3,65; 11,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,73</t>
+          <t>3,22; 8,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,56</t>
+          <t>5,42; 11,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,29</t>
+          <t>3,61; 11,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 8,05</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 7,25</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 7,86</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 7,35</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,49</t>
+          <t>2,86; 7,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,16</t>
+          <t>5,29; 12,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,53</t>
+          <t>3,14; 6,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,98</t>
+          <t>2,56; 6,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,48</t>
+          <t>2,54; 9,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,02</t>
+          <t>3,34; 6,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,67</t>
+          <t>3,06; 6,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,84</t>
+          <t>2,5; 6,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 7,4</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,79; 9,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 5,97</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 6,2</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 8,57</t>
+          <t>1,32; 10,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,17</t>
+          <t>0,75; 7,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,75</t>
+          <t>0,88; 3,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,78</t>
+          <t>2,35; 9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,48</t>
+          <t>0,91; 4,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,91</t>
+          <t>1,33; 4,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,12</t>
+          <t>3,09; 6,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,08</t>
+          <t>3,11; 7,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 6,64</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 4,59</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 4,55</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 7,49</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>4,27%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,34%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,4%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,98</t>
+          <t>3,9; 8,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,66</t>
+          <t>1,71; 5,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,38</t>
+          <t>3,02; 8,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,44</t>
+          <t>4,57; 9,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,17</t>
+          <t>2,43; 6,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 5,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,55</t>
+          <t>2,9; 7,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 5,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 7,96</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 5,33</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 6,87</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 6,59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 6,83</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 4,58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 5,83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 6,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 5,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 6,66</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 6,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 6,06</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 5,71</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 5,27</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 5,78</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10583</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20955</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20975</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4864</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27269</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35504</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70828</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>43079</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>37852</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>56459</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>91803</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>47943</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2518; 25249</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9485; 36256</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9806; 40410</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17232</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15310; 47721</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20390; 55608</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>48122; 98719</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23180; 75404</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>22574; 60886</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>38213; 84179</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>66174; 126349</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>26079; 79681</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>43506</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>97789</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>74879</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46089</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46703</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60546</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>67106</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>49108</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>90209</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>158336</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>141985</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>95197</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26679; 68529</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>63805; 153090</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50855; 108802</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27252; 70296</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25292; 92913</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>41227; 85517</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46018; 93915</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27120; 72097</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>61561; 142898</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>116702; 221672</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>110656; 186595</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>67959; 133293</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27942</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20700</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22484</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40701</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16017</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23950</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>53639</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>45697</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>43959</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>44649</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>76123</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>86398</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9421; 77123</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6351; 64603</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9593; 42782</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19410; 75639</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7014; 31092</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12565; 39794</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35999; 77888</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>27938; 70834</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>23487; 98454</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>25782; 81995</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>55502; 102649</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>57544; 129052</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>83976</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26960</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>56860</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>89251</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32350</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>46229</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>173227</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>59310</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>103090</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>56197; 124165</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14691; 45803</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>32845; 87442</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>63544; 127763</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18399; 51131</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28059; 74921</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>129390; 225312</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>38908; 86148</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>71426; 141322</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>166404</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>118338</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>148515</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>179239</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>152350</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>191573</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>184113</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>345246</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>318754</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>309912</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>332628</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>120208; 225546</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>125842; 234733</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>87404; 156954</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>105996; 199375</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>136806; 240693</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>123660; 197372</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>152569; 236909</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>142788; 233645</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>283116; 423921</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>264665; 400281</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>264419; 367944</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>275593; 405250</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
